--- a/3.results/model_selection/sterne_caugek_R_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/sterne_caugek_R_3_blocks_assemblage.xlsx
@@ -598,28 +598,28 @@
         <v>33</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.009</v>
+        <v>1.092</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>668.9</v>
+        <v>76.5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.54</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>826</v>
@@ -634,7 +634,7 @@
         <v>1330</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>102</v>
@@ -643,10 +643,10 @@
         <v>406</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-4.02</v>
+        <v>-4.1</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -656,7 +656,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -671,37 +671,37 @@
         <v>34</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.01</v>
+        <v>1.276</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>499.1</v>
+        <v>51.9</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>92</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>1284</v>
@@ -713,42 +713,46 @@
         <v>89</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1266</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>1267</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>-1.56</v>
+      </c>
       <c r="S3" s="1" t="n">
-        <v>-1.33</v>
+        <v>-0.91</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>3.22</v>
+        <v>2.41</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="n">
-        <v>-1.71</v>
+        <v>-1.32</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z3" s="1"/>
+        <v>0.55</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>0.59</v>
+      </c>
       <c r="AA3" s="1" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="1" t="n">
         <v>0.53</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -756,10 +760,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.036</v>
+        <v>1.071</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>615</v>
+        <v>73.1</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.8</v>
@@ -768,88 +772,108 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.54</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>99</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>96</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1284</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+        <v>1281</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>1.97</v>
+      </c>
       <c r="U4" s="1" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V4" s="1"/>
+        <v>-0.22</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>-0.38</v>
+      </c>
       <c r="W4" s="1" t="n">
-        <v>-1.93</v>
+        <v>-0.33</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+        <v>-0.65</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>0.66</v>
+      </c>
       <c r="AC4" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD4" s="1"/>
+        <v>0.57</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>0.85</v>
+      </c>
       <c r="AE4" s="1" t="n">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AG4" s="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1.022</v>
+        <v>1.169</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>617.4</v>
+        <v>77.1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0.55</v>
@@ -858,10 +882,10 @@
         <v>0.23</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>94</v>
@@ -870,13 +894,13 @@
         <v>382</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>381</v>
@@ -885,69 +909,65 @@
         <v>1260</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="n">
-        <v>0.56</v>
-      </c>
+        <v>-1.51</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1" t="n">
-        <v>0.35</v>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1.021</v>
+        <v>1.09</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>755</v>
+        <v>103.7</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.81</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.54</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>813</v>
@@ -956,86 +976,86 @@
         <v>98</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>390</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>1281</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AG6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1.005</v>
+        <v>1.106</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>830.7</v>
+        <v>94.9</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>96</v>
@@ -1044,63 +1064,63 @@
         <v>381</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>789</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="n">
-        <v>-0.93</v>
+        <v>-0.92</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>-0.19</v>
+        <v>-0.22</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>-0.23</v>
+        <v>-0.17</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>-0.88</v>
+        <v>-0.85</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="AB7" s="1" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="AC7" s="1" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AD7" s="1" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AE7" s="1" t="n">
         <v>0.56</v>
       </c>
       <c r="AF7" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AG7" s="1" t="n">
         <v>0.39</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -1108,31 +1128,31 @@
         <v>39</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1.016</v>
+        <v>1.143</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>848.6</v>
+        <v>102.1</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.66</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.49</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>96</v>
@@ -1141,68 +1161,48 @@
         <v>382</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>382</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>1265</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>1264</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="V8" s="1" t="n">
-        <v>-0.42</v>
-      </c>
+        <v>1.11</v>
+      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1" t="n">
-        <v>-0.41</v>
+        <v>-1.9</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="Y8" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z8" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AA8" s="1" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>0.64</v>
-      </c>
+        <v>-1.74</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AD8" s="1" t="n">
-        <v>0.81</v>
-      </c>
+        <v>0.29</v>
+      </c>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AG8" s="1" t="n">
-        <v>0.41</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="AG8" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D8">
@@ -1251,7 +1251,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;808</formula>
+      <formula>J2&lt;807</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
@@ -1264,7 +1264,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;97</formula>
+      <formula>K2&lt;95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
@@ -1277,7 +1277,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;386</formula>
+      <formula>L2&lt;384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
@@ -1290,7 +1290,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;1284</formula>
+      <formula>M2&lt;1283</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N8">
@@ -1303,7 +1303,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;793</formula>
+      <formula>N2&lt;790</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O8">
@@ -1316,7 +1316,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;94</formula>
+      <formula>O2&lt;92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P8">
@@ -1329,7 +1329,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;386</formula>
+      <formula>P2&lt;382</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q8">
@@ -1342,7 +1342,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;1265</formula>
+      <formula>Q2&lt;1263</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.results/model_selection/sterne_caugek_R_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/sterne_caugek_R_3_blocks_assemblage.xlsx
@@ -1,145 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F8AF8-1970-47EA-ADEA-282D2C234A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="blocks" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhat_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d3_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d3_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + mean_SSH + sd_SSH + log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_CHL + mean_SSH + sd_SSH + log_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_CHL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>rhat_max</t>
+  </si>
+  <si>
+    <t>ESS_min</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d3_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d3_gr2</t>
+  </si>
+  <si>
+    <t>waic_d1</t>
+  </si>
+  <si>
+    <t>waic_d2</t>
+  </si>
+  <si>
+    <t>waic_d3</t>
+  </si>
+  <si>
+    <t>waic_tot</t>
+  </si>
+  <si>
+    <t>CV_d1</t>
+  </si>
+  <si>
+    <t>CV_d2</t>
+  </si>
+  <si>
+    <t>CV_d3</t>
+  </si>
+  <si>
+    <t>CV_tot</t>
+  </si>
+  <si>
+    <t>beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t>beta_log_sd_VEL</t>
+  </si>
+  <si>
+    <t>beta_mean_CHL</t>
+  </si>
+  <si>
+    <t>beta_mean_spring_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_winter_SST</t>
+  </si>
+  <si>
+    <t>beta_sd_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t>sd_beta_log_sd_VEL</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_CHL</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_spring_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_winter_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_SSH</t>
+  </si>
+  <si>
+    <t>log_bathymetry</t>
+  </si>
+  <si>
+    <t>mean_CHL + mean_SSH + sd_SSH + log_sd_VEL</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_CHL + mean_SSH + sd_SSH + log_sd_VEL</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_CHL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_CHL + mean_SSH + sd_SSH + log_sd_VEL + mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,12 +160,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,16 +186,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -195,15 +275,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-        <b/>
-      </font>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -485,14 +566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,60 +676,60 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.092</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="B2" s="1">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>717.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.5</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.54</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>0.27</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>0.5</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>826</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>104</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>400</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>1330</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="O2" s="1" t="n">
+      <c r="N2" s="1">
+        <v>805</v>
+      </c>
+      <c r="O2" s="1">
         <v>102</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>1315</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-4.1</v>
+      <c r="P2" s="1">
+        <v>405</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1312</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-4.07</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -655,8 +738,8 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="n">
-        <v>0.51</v>
+      <c r="Z2" s="1">
+        <v>0.53</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -666,582 +749,555 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1.276</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="B3" s="1">
+        <v>1.008</v>
+      </c>
+      <c r="C3" s="1">
+        <v>568.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="J3" s="1" t="n">
+      <c r="F3" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="J3" s="1">
         <v>804</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>92</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="1">
         <v>388</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="1">
         <v>1284</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="1">
         <v>790</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="1">
         <v>89</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="1">
         <v>388</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="1">
         <v>1267</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="1">
         <v>-1.56</v>
       </c>
-      <c r="S3" s="1" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>2.41</v>
+      <c r="S3" s="1">
+        <v>-0.94</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2.4700000000000002</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1" t="n">
-        <v>-1.32</v>
+      <c r="V3" s="1">
+        <v>-1.43</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>0.53</v>
+      <c r="Y3" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.54</v>
       </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="n">
-        <v>0.46</v>
+      <c r="AD3" s="1">
+        <v>0.48</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1" t="n">
-        <v>0.34</v>
+      <c r="AG3" s="1">
+        <v>0.35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1.071</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="B4" s="1">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>571.20000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>0.65</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="G4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.5</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="J4" s="1">
+        <v>814</v>
+      </c>
+      <c r="K4" s="1">
         <v>99</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="1">
         <v>390</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>1302</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="O4" s="1" t="n">
+      <c r="M4" s="1">
+        <v>1303</v>
+      </c>
+      <c r="N4" s="1">
+        <v>796</v>
+      </c>
+      <c r="O4" s="1">
         <v>96</v>
       </c>
-      <c r="P4" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="Q4" s="1" t="n">
+      <c r="P4" s="1">
+        <v>389</v>
+      </c>
+      <c r="Q4" s="1">
         <v>1281</v>
       </c>
-      <c r="R4" s="1" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z4" s="1" t="n">
+      <c r="R4" s="1">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-0.87</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-0.44</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-0.66</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0.92</v>
       </c>
-      <c r="AA4" s="1" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AA4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AB4" s="1">
         <v>0.66</v>
       </c>
-      <c r="AC4" s="1" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AC4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AF4" s="1">
         <v>0.51</v>
       </c>
-      <c r="AF4" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>0.4</v>
+      <c r="AG4" s="1">
+        <v>0.41</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.169</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="B5" s="1">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.23</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>803</v>
+      </c>
+      <c r="K5" s="1">
         <v>94</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>382</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>1280</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="M5" s="1">
+        <v>1279</v>
+      </c>
+      <c r="N5" s="1">
         <v>787</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="1">
         <v>92</v>
       </c>
-      <c r="P5" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>1260</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>-1.51</v>
+      <c r="P5" s="1">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1261</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1.67</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1" t="n">
-        <v>0.94</v>
+      <c r="U5" s="1">
+        <v>0.96</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>-1.14</v>
+      <c r="W5" s="1">
+        <v>-1.73</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-1.1100000000000001</v>
       </c>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="n">
-        <v>0.76</v>
+      <c r="Z5" s="1">
+        <v>0.89</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="n">
+      <c r="AC5" s="1">
         <v>0.3</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>0.39</v>
+      <c r="AE5" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.42</v>
       </c>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="B6" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>736.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.54</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J6" s="1" t="n">
+      <c r="H6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
         <v>813</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>98</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>1300</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="P6" s="1" t="n">
+      <c r="L6" s="1">
         <v>390</v>
       </c>
-      <c r="Q6" s="1" t="n">
-        <v>1280</v>
+      <c r="M6" s="1">
+        <v>1301</v>
+      </c>
+      <c r="N6" s="1">
+        <v>796</v>
+      </c>
+      <c r="O6" s="1">
+        <v>95</v>
+      </c>
+      <c r="P6" s="1">
+        <v>390</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1281</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>3.31</v>
+      <c r="S6" s="1">
+        <v>-1.31</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.16</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="1" t="n">
-        <v>-1.71</v>
+      <c r="V6" s="1">
+        <v>-1.68</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="n">
-        <v>0.89</v>
+      <c r="Y6" s="1">
+        <v>0.87</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>0.51</v>
+      <c r="AA6" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.49</v>
       </c>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1" t="n">
-        <v>0.48</v>
+      <c r="AD6" s="1">
+        <v>0.45</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1" t="n">
+      <c r="AG6" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.106</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>94.9</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>1.006</v>
+      </c>
+      <c r="C7" s="1">
+        <v>628.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.54</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="H7" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>806</v>
+      </c>
+      <c r="K7" s="1">
         <v>96</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>1282</v>
-      </c>
-      <c r="N7" s="1" t="n">
+      <c r="L7" s="1">
+        <v>382</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1284</v>
+      </c>
+      <c r="N7" s="1">
         <v>789</v>
       </c>
-      <c r="O7" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="O7" s="1">
+        <v>94</v>
+      </c>
+      <c r="P7" s="1">
+        <v>380</v>
+      </c>
+      <c r="Q7" s="1">
         <v>1263</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="V7" s="1" t="n">
+      <c r="S7" s="1">
+        <v>-0.94</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="U7" s="1">
         <v>-0.17</v>
       </c>
-      <c r="W7" s="1" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>0.27</v>
+      <c r="V7" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-0.49</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-0.89</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.34</v>
       </c>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AA7" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="AC7" s="1">
         <v>0.63</v>
       </c>
-      <c r="AD7" s="1" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AE7" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AD7" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG7" s="1">
         <v>0.41</v>
       </c>
-      <c r="AG7" s="1" t="n">
-        <v>0.39</v>
-      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.143</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="B8" s="1">
+        <v>1.016</v>
+      </c>
+      <c r="C8" s="1">
+        <v>938.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.5</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1">
         <v>805</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>96</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>1283</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>1264</v>
+      <c r="L8" s="1">
+        <v>383</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1284</v>
+      </c>
+      <c r="N8" s="1">
+        <v>789</v>
+      </c>
+      <c r="O8" s="1">
+        <v>93</v>
+      </c>
+      <c r="P8" s="1">
+        <v>381</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1263</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1" t="n">
-        <v>1.11</v>
+      <c r="U8" s="1">
+        <v>1.1399999999999999</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="1" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>-1.74</v>
+      <c r="W8" s="1">
+        <v>-1.94</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-1.77</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="n">
-        <v>0.29</v>
+      <c r="AC8" s="1">
+        <v>0.3</v>
       </c>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF8" s="1" t="n">
-        <v>0.25</v>
+      <c r="AE8" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.26</v>
       </c>
       <c r="AG8" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="between">
+  <conditionalFormatting sqref="D2:I8">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>J2&lt;806</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1250,11 +1306,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;807</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>K2&lt;95</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1263,11 +1319,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;95</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>L2&lt;385</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1276,11 +1332,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;384</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>M2&lt;1282</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1289,11 +1345,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;1283</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N8">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>N2&lt;790</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1302,11 +1358,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;790</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O8">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>O2&lt;92</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1315,11 +1371,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;92</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P8">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>P2&lt;383</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1328,11 +1384,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;382</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>Q2&lt;1264</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1341,11 +1397,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;1263</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>